--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_14_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_14_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2990212.374486322</v>
+        <v>2985908.034676454</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F2" t="n">
         <v>263.7138800015061</v>
@@ -676,7 +676,7 @@
         <v>263.7138800015061</v>
       </c>
       <c r="H2" t="n">
-        <v>79.51149230610424</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>79.51149230610433</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>110.1764284480385</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150561</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.1525249552777</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>105.4031034926539</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -828,19 +828,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>94.88208160023196</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248086</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888211</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>55.3395603454746</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>72.63544656439285</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>212.5689651179051</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>109.3170492634406</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>54.84869454561259</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>69.19328548994037</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,22 +1104,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>83.43224246993545</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>112.7915580252032</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.5491597882495</v>
+        <v>11.54915978824948</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203004</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465039</v>
+        <v>65.76608425465002</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348407</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>129.2086165164808</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614507</v>
+        <v>92.83909691614502</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115239</v>
+        <v>20.24979976115222</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1265,13 +1265,13 @@
         <v>134.3791152901738</v>
       </c>
       <c r="T9" t="n">
-        <v>192.0697045406877</v>
+        <v>192.0697045406876</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8092543744329</v>
+        <v>224.0328052099128</v>
       </c>
       <c r="V9" t="n">
-        <v>231.0241379848944</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -1293,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640954</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503845</v>
+        <v>38.28175962750693</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103387</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>46.98020183032224</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1426,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1539,13 +1539,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>34.22340015155905</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,13 +1584,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>220.4289331391115</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1767,13 +1767,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>74.20064764874429</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2004,16 +2004,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812011</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>4.974488840438626</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444124</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695523</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.6356839950558</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2481,13 +2481,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>113.5028334418564</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>25.73194049497363</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2772,13 +2772,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>221.9873400524092</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>49.33106662725117</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2955,10 +2955,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673027</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>157.2118128397233</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>132.616430926769</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3277,13 +3277,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695535</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174123</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784691</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>79.70119244397205</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3486,10 +3486,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3514,13 +3514,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417105</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695535</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>132.1190787273706</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3793,10 +3793,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881302</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>27.02919805176103</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4039,7 +4039,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717414</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>634.167062227511</v>
+        <v>820.230080101654</v>
       </c>
       <c r="C2" t="n">
-        <v>634.167062227511</v>
+        <v>820.230080101654</v>
       </c>
       <c r="D2" t="n">
-        <v>634.167062227511</v>
+        <v>820.230080101654</v>
       </c>
       <c r="E2" t="n">
-        <v>634.167062227511</v>
+        <v>553.8524235344762</v>
       </c>
       <c r="F2" t="n">
-        <v>367.789405660333</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="G2" t="n">
-        <v>101.4117490931551</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H2" t="n">
         <v>21.09711040012049</v>
@@ -4330,52 +4330,52 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917624</v>
+        <v>49.28269087917582</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052547</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515912</v>
+        <v>294.5174947515904</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030611</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991323</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358418</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
-        <v>1011.026904601763</v>
+        <v>1011.026904601762</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946889</v>
+        <v>900.5447187946887</v>
       </c>
       <c r="T2" t="n">
-        <v>900.5447187946889</v>
+        <v>900.5447187946887</v>
       </c>
       <c r="U2" t="n">
-        <v>900.5447187946889</v>
+        <v>820.230080101654</v>
       </c>
       <c r="V2" t="n">
-        <v>900.5447187946889</v>
+        <v>820.230080101654</v>
       </c>
       <c r="W2" t="n">
-        <v>900.5447187946889</v>
+        <v>820.230080101654</v>
       </c>
       <c r="X2" t="n">
-        <v>634.167062227511</v>
+        <v>820.230080101654</v>
       </c>
       <c r="Y2" t="n">
-        <v>634.167062227511</v>
+        <v>820.230080101654</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>600.6234914846743</v>
+        <v>613.200219490875</v>
       </c>
       <c r="C3" t="n">
-        <v>426.1704622035473</v>
+        <v>613.200219490875</v>
       </c>
       <c r="D3" t="n">
-        <v>277.2360525422961</v>
+        <v>464.2658098296238</v>
       </c>
       <c r="E3" t="n">
-        <v>277.2360525422961</v>
+        <v>305.0283548241683</v>
       </c>
       <c r="F3" t="n">
-        <v>277.2360525422961</v>
+        <v>158.4937968510533</v>
       </c>
       <c r="G3" t="n">
-        <v>165.9467308776108</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749989</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>117.4455628004799</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957459</v>
+        <v>192.1295835699341</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298712</v>
+        <v>338.8740072302307</v>
       </c>
       <c r="M3" t="n">
-        <v>433.126243926395</v>
+        <v>529.4746963267545</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110289999</v>
+        <v>739.5286634293595</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557296</v>
+        <v>909.4672107560893</v>
       </c>
       <c r="P3" t="n">
-        <v>930.176358389133</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212815</v>
+        <v>887.8833378166541</v>
       </c>
       <c r="T3" t="n">
-        <v>1036.519636212815</v>
+        <v>887.8833378166541</v>
       </c>
       <c r="U3" t="n">
-        <v>808.3837902496282</v>
+        <v>887.8833378166541</v>
       </c>
       <c r="V3" t="n">
-        <v>808.3837902496282</v>
+        <v>887.8833378166541</v>
       </c>
       <c r="W3" t="n">
-        <v>808.3837902496282</v>
+        <v>781.4155565109431</v>
       </c>
       <c r="X3" t="n">
-        <v>808.3837902496282</v>
+        <v>781.4155565109431</v>
       </c>
       <c r="Y3" t="n">
-        <v>600.6234914846743</v>
+        <v>781.4155565109431</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>873.2070551757848</v>
+        <v>169.0102039825136</v>
       </c>
       <c r="C4" t="n">
-        <v>704.2708722478779</v>
+        <v>169.0102039825136</v>
       </c>
       <c r="D4" t="n">
-        <v>704.2708722478779</v>
+        <v>169.0102039825136</v>
       </c>
       <c r="E4" t="n">
-        <v>556.3577786654848</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F4" t="n">
-        <v>409.4678311675744</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G4" t="n">
-        <v>313.6273447026937</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>159.7059716361717</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434485</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287943</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551008</v>
+        <v>316.7083726551006</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375332</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227043</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075539</v>
       </c>
       <c r="P4" t="n">
-        <v>1048.360858816803</v>
+        <v>1048.360858816802</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407072</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512186</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006025</v>
+        <v>663.3774114477089</v>
       </c>
       <c r="U4" t="n">
-        <v>1054.855520006025</v>
+        <v>396.999754880531</v>
       </c>
       <c r="V4" t="n">
-        <v>1054.855520006025</v>
+        <v>396.999754880531</v>
       </c>
       <c r="W4" t="n">
-        <v>1054.855520006025</v>
+        <v>396.999754880531</v>
       </c>
       <c r="X4" t="n">
-        <v>1054.855520006025</v>
+        <v>169.0102039825136</v>
       </c>
       <c r="Y4" t="n">
-        <v>1054.855520006025</v>
+        <v>169.0102039825136</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>900.5447187946889</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="C5" t="n">
-        <v>634.167062227511</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="D5" t="n">
-        <v>367.789405660333</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="E5" t="n">
-        <v>367.789405660333</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F5" t="n">
-        <v>360.8439049111296</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
-        <v>287.4747669672984</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
         <v>21.09711040012049</v>
@@ -4594,25 +4594,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X5" t="n">
-        <v>900.5447187946889</v>
+        <v>840.1393936243022</v>
       </c>
       <c r="Y5" t="n">
-        <v>900.5447187946889</v>
+        <v>840.1393936243022</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>773.2654142440368</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C6" t="n">
-        <v>598.8123849629098</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D6" t="n">
-        <v>449.8779753016586</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E6" t="n">
-        <v>449.8779753016586</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F6" t="n">
-        <v>303.3434173285435</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>165.9467308776107</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
         <v>21.09711040012049</v>
@@ -4649,16 +4649,16 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699343</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L6" t="n">
-        <v>338.874007230231</v>
+        <v>247.7358133554696</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267547</v>
+        <v>438.3365024519934</v>
       </c>
       <c r="N6" t="n">
-        <v>739.5286634293598</v>
+        <v>648.3904695545984</v>
       </c>
       <c r="O6" t="n">
         <v>909.4672107560896</v>
@@ -4676,22 +4676,22 @@
         <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>981.1169144495697</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U6" t="n">
-        <v>981.1169144495697</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>981.1169144495697</v>
+        <v>801.367527981072</v>
       </c>
       <c r="W6" t="n">
-        <v>981.1169144495697</v>
+        <v>547.1301712528705</v>
       </c>
       <c r="X6" t="n">
-        <v>773.2654142440368</v>
+        <v>339.2786710473376</v>
       </c>
       <c r="Y6" t="n">
-        <v>773.2654142440368</v>
+        <v>131.5183722823837</v>
       </c>
     </row>
     <row r="7">
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>36.32155393434483</v>
+        <v>340.1499327403632</v>
       </c>
       <c r="C7" t="n">
-        <v>36.32155393434483</v>
+        <v>171.2137498124562</v>
       </c>
       <c r="D7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J7" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
         <v>739.1822330227046</v>
@@ -4752,25 +4752,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>848.0684854165361</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>848.0684854165361</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>581.6908288493581</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>327.0063406434713</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>327.0063406434713</v>
+        <v>970.5805276121504</v>
       </c>
       <c r="X7" t="n">
-        <v>327.0063406434713</v>
+        <v>742.590976714133</v>
       </c>
       <c r="Y7" t="n">
-        <v>106.2137614999412</v>
+        <v>521.7983975706029</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1617.37050346536</v>
+        <v>1653.309834245809</v>
       </c>
       <c r="C8" t="n">
-        <v>1248.407986524948</v>
+        <v>1284.347317305397</v>
       </c>
       <c r="D8" t="n">
-        <v>1248.407986524948</v>
+        <v>926.0816186986465</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.407986524948</v>
+        <v>540.2933661004023</v>
       </c>
       <c r="F8" t="n">
-        <v>837.4220817353408</v>
+        <v>129.3074613107948</v>
       </c>
       <c r="G8" t="n">
-        <v>421.715859727008</v>
+        <v>117.641643342866</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6416433428662</v>
+        <v>117.641643342866</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685565</v>
+        <v>51.21125520685587</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467171</v>
+        <v>187.3702251467179</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607419</v>
+        <v>442.175743760744</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045924</v>
+        <v>795.1862829045963</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995226</v>
+        <v>1219.647962995231</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209584</v>
+        <v>1655.59168520959</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940595</v>
+        <v>2053.905718940603</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550197</v>
+        <v>2359.356530550207</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661163</v>
+        <v>2540.564622661173</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342782</v>
+        <v>2560.562760342793</v>
       </c>
       <c r="S8" t="n">
-        <v>2435.830015762135</v>
+        <v>2560.562760342793</v>
       </c>
       <c r="T8" t="n">
-        <v>2435.830015762135</v>
+        <v>2560.562760342793</v>
       </c>
       <c r="U8" t="n">
-        <v>2435.830015762135</v>
+        <v>2560.562760342793</v>
       </c>
       <c r="V8" t="n">
-        <v>2104.767128418564</v>
+        <v>2560.562760342793</v>
       </c>
       <c r="W8" t="n">
-        <v>2104.767128418564</v>
+        <v>2560.562760342793</v>
       </c>
       <c r="X8" t="n">
-        <v>1731.301370157485</v>
+        <v>2430.049006285742</v>
       </c>
       <c r="Y8" t="n">
-        <v>1731.301370157485</v>
+        <v>2039.90967430993</v>
       </c>
     </row>
     <row r="9">
@@ -4877,46 +4877,46 @@
         <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993887</v>
+        <v>71.66559839993892</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685565</v>
+        <v>51.21125520685587</v>
       </c>
       <c r="J9" t="n">
-        <v>143.0521112394727</v>
+        <v>238.3188829507241</v>
       </c>
       <c r="K9" t="n">
-        <v>589.4696922330246</v>
+        <v>422.9158793018241</v>
       </c>
       <c r="L9" t="n">
-        <v>884.0056756665058</v>
+        <v>884.0056756665113</v>
       </c>
       <c r="M9" t="n">
-        <v>1247.072144140807</v>
+        <v>1247.072144140814</v>
       </c>
       <c r="N9" t="n">
-        <v>1634.156546613376</v>
+        <v>1634.156546613384</v>
       </c>
       <c r="O9" t="n">
-        <v>1966.043356600765</v>
+        <v>1966.043356600774</v>
       </c>
       <c r="P9" t="n">
-        <v>2213.07871503039</v>
+        <v>2213.0787150304</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.272628442625</v>
+        <v>2536.272628442636</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342782</v>
+        <v>2560.562760342793</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251698</v>
+        <v>2424.826280251709</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685347</v>
+        <v>2230.816477685358</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.726321751576</v>
+        <v>2004.520714847062</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368606615319</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>51.21125520685565</v>
+        <v>388.1345629950721</v>
       </c>
       <c r="C10" t="n">
-        <v>51.21125520685565</v>
+        <v>219.1983800671651</v>
       </c>
       <c r="D10" t="n">
-        <v>51.21125520685565</v>
+        <v>219.1983800671651</v>
       </c>
       <c r="E10" t="n">
-        <v>51.21125520685565</v>
+        <v>219.1983800671651</v>
       </c>
       <c r="F10" t="n">
-        <v>51.21125520685565</v>
+        <v>219.1983800671651</v>
       </c>
       <c r="G10" t="n">
-        <v>51.21125520685565</v>
+        <v>51.21125520685587</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685565</v>
+        <v>51.21125520685587</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685565</v>
+        <v>51.21125520685587</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380143</v>
+        <v>76.63468308380195</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676567</v>
+        <v>248.2500215676577</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368918</v>
+        <v>523.3850043368934</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904033</v>
+        <v>823.8653899904054</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101612</v>
+        <v>1122.635640101615</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931091</v>
+        <v>1382.582027931094</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616499</v>
+        <v>1581.490387616504</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477362</v>
+        <v>1635.769145477367</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.156055412619</v>
+        <v>1635.769145477367</v>
       </c>
       <c r="S10" t="n">
-        <v>1336.515802634453</v>
+        <v>1597.100701409178</v>
       </c>
       <c r="T10" t="n">
-        <v>1113.534501108859</v>
+        <v>1597.100701409178</v>
       </c>
       <c r="U10" t="n">
-        <v>824.4161276035006</v>
+        <v>1307.98232790382</v>
       </c>
       <c r="V10" t="n">
-        <v>569.7316393976138</v>
+        <v>1307.98232790382</v>
       </c>
       <c r="W10" t="n">
-        <v>280.3144693606532</v>
+        <v>1018.565157866859</v>
       </c>
       <c r="X10" t="n">
-        <v>232.8597200370953</v>
+        <v>790.575606968842</v>
       </c>
       <c r="Y10" t="n">
-        <v>232.8597200370953</v>
+        <v>569.7830278253118</v>
       </c>
     </row>
     <row r="11">
@@ -5038,13 +5038,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5074,7 +5074,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5117,28 +5117,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>869.6905094135296</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C13" t="n">
-        <v>700.7543264856228</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D13" t="n">
-        <v>550.637687073287</v>
+        <v>443.4949469776659</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1754.805592491204</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.121104285317</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1500.121104285317</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1272.131553387299</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>1051.338974243769</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5260,16 +5260,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
@@ -5278,22 +5278,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5369,16 +5369,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>802.9288273958734</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>633.9926444679666</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D16" t="n">
-        <v>483.8760050556308</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>335.9629114732377</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>335.9629114732377</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>168.7668121881176</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5469,19 +5469,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5506,28 +5506,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5536,28 +5536,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>808.8888553856862</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>639.9526724577793</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D19" t="n">
-        <v>489.8360330454435</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>489.8360330454435</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>990.5373202159259</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192599</v>
@@ -5755,13 +5755,13 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
@@ -5779,25 +5779,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5943,19 +5943,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1205.369871369643</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5971,25 +5971,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263526</v>
+        <v>801.6605733532803</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356194</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2265.268053123717</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2265.268053123717</v>
       </c>
       <c r="U25" t="n">
-        <v>2044.506784258106</v>
+        <v>1976.192826467915</v>
       </c>
       <c r="V25" t="n">
-        <v>2018.514925172274</v>
+        <v>1721.508338262028</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1432.091168225067</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>1204.10161732705</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>983.30903818352</v>
       </c>
     </row>
     <row r="26">
@@ -6217,13 +6217,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.192580311172</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>847.6442739835331</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6420,16 +6420,16 @@
         <v>1871.240688199802</v>
       </c>
       <c r="V28" t="n">
-        <v>1647.011051783227</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W28" t="n">
-        <v>1647.011051783227</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X28" t="n">
-        <v>1419.02150088521</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y28" t="n">
-        <v>1198.22892174168</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="29">
@@ -6445,13 +6445,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6463,10 +6463,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2815.530845237133</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C31" t="n">
-        <v>2646.594662309226</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D31" t="n">
-        <v>2646.594662309226</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E31" t="n">
-        <v>2646.594662309226</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>2646.594662309226</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>2479.398563024106</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328841</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U31" t="n">
-        <v>3990.063098351768</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V31" t="n">
-        <v>3735.378610145881</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W31" t="n">
-        <v>3445.96144010892</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X31" t="n">
-        <v>3217.971889210903</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y31" t="n">
-        <v>2997.179310067373</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="32">
@@ -6682,31 +6682,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014779</v>
@@ -6718,7 +6718,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852255</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3093.254426444652</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>2924.318243516745</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>2774.20160410441</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>2626.288510522017</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>2479.398563024106</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>2479.398563024106</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398593</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>4507.978318053498</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>4288.376853076439</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>3999.301626420637</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>3744.61713821475</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>3455.19996817779</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>3227.210417279773</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>3093.254426444652</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,58 +6925,58 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192559</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
         <v>3094.515198591809</v>
@@ -7010,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1031.260321675044</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>862.3241387471376</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>712.2074993348018</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782908</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038294</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797695</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910804</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570812</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279797</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580255</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832658</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487562</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510503</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854701</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648814</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1433.701365648814</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1433.701365648814</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1212.908786505284</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>916.2946447138411</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>916.2946447138411</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>766.1780053015053</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>618.2649117191122</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7377,7 +7377,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7399,31 +7399,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192832</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111739</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075831</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068011</v>
@@ -7432,25 +7432,25 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
         <v>3094.515198591809</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,28 +7484,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468472</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>949.9304447718133</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578603</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7636,61 +7636,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075831</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,28 +7721,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468472</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1700.311647517213</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2252.2213777565</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
         <v>402.7245934908939</v>
@@ -7800,10 +7800,10 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761156</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418294</v>
+        <v>99.37288961069042</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.32166909127285</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8139,7 +8139,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>106.7437663446522</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8297,10 +8297,10 @@
         <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>5.262887399594234</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8309,7 +8309,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>92.05878169167806</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>29.86197300581208</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>168.2361746779848</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -11299,7 +11299,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>2.330580173293129e-12</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23427,13 +23427,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>111.1976478713722</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,13 +23472,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>65.75554125013261</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23655,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>66.09406519747959</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23892,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>140.4465591824926</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>74.19629618688145</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>67.5234525597882</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>226.4057028288544</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24660,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>30.15030327141878</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>176.378588761786</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24843,10 +24843,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194143</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>68.49784254931382</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>85.96822242532576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>66.73277020259712</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25374,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>13.30196929556061</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>138.4949402405078</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>734971.155231178</v>
+        <v>734971.1552311779</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>734971.155231178</v>
+        <v>734971.1552311779</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>734971.155231178</v>
+        <v>734971.1552311779</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>734971.155231178</v>
+        <v>734971.1552311779</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>734971.155231178</v>
+        <v>734971.1552311779</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846411</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846411</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846403</v>
+        <v>697885.5043846405</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="F2" t="n">
+        <v>686074.6097365053</v>
+      </c>
+      <c r="G2" t="n">
         <v>686074.6097365057</v>
       </c>
-      <c r="G2" t="n">
-        <v>686074.6097365054</v>
-      </c>
       <c r="H2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365053</v>
       </c>
       <c r="I2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365053</v>
       </c>
       <c r="J2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="K2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="L2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="M2" t="n">
         <v>686074.6097365053</v>
       </c>
       <c r="N2" t="n">
+        <v>686074.6097365054</v>
+      </c>
+      <c r="O2" t="n">
         <v>686074.6097365057</v>
-      </c>
-      <c r="O2" t="n">
-        <v>686074.6097365054</v>
       </c>
       <c r="P2" t="n">
         <v>686074.6097365057</v>
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911928</v>
+        <v>680087.980591193</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580788</v>
+        <v>390680.0076580816</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606934</v>
+        <v>507909.2320606908</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>5.19711258155959e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>68999.15441911406</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101766</v>
+        <v>95270.23779101828</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.975695469</v>
+        <v>132717.9756954683</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>248543.2666865467</v>
+        <v>248543.2666865468</v>
       </c>
       <c r="C4" t="n">
-        <v>248543.2666865467</v>
+        <v>248543.2666865468</v>
       </c>
       <c r="D4" t="n">
-        <v>136854.4547662839</v>
+        <v>136854.4547662831</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="F4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.200356756632</v>
+        <v>9337.200356756644</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.200356756632</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="K4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="L4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="M4" t="n">
-        <v>9337.200356756486</v>
+        <v>9337.200356756653</v>
       </c>
       <c r="N4" t="n">
-        <v>9337.200356756555</v>
+        <v>9337.200356756632</v>
       </c>
       <c r="O4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="P4" t="n">
-        <v>9337.20035675661</v>
+        <v>9337.20035675659</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567895</v>
+        <v>92902.86757567916</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-293793.5460973648</v>
+        <v>-293793.5460973649</v>
       </c>
       <c r="C6" t="n">
-        <v>386294.4344938282</v>
+        <v>386294.4344938277</v>
       </c>
       <c r="D6" t="n">
-        <v>77448.17438459865</v>
+        <v>77448.17438459666</v>
       </c>
       <c r="E6" t="n">
-        <v>67705.6474951484</v>
+        <v>67358.26824079438</v>
       </c>
       <c r="F6" t="n">
-        <v>575614.879555842</v>
+        <v>575267.5003014847</v>
       </c>
       <c r="G6" t="n">
-        <v>575614.8795558417</v>
+        <v>575267.5003014849</v>
       </c>
       <c r="H6" t="n">
-        <v>575614.8795558418</v>
+        <v>575267.5003014847</v>
       </c>
       <c r="I6" t="n">
-        <v>575614.879555842</v>
+        <v>575267.5003014847</v>
       </c>
       <c r="J6" t="n">
-        <v>506615.7251367277</v>
+        <v>506268.3458823709</v>
       </c>
       <c r="K6" t="n">
-        <v>575614.8795558419</v>
+        <v>575267.5003014851</v>
       </c>
       <c r="L6" t="n">
-        <v>480344.6417648246</v>
+        <v>479997.2625104667</v>
       </c>
       <c r="M6" t="n">
-        <v>442896.9038603727</v>
+        <v>442549.5246060162</v>
       </c>
       <c r="N6" t="n">
-        <v>575614.879555842</v>
+        <v>575267.5003014847</v>
       </c>
       <c r="O6" t="n">
-        <v>575614.8795558417</v>
+        <v>575267.5003014851</v>
       </c>
       <c r="P6" t="n">
-        <v>575614.8795558419</v>
+        <v>575267.5003014851</v>
       </c>
     </row>
   </sheetData>
@@ -26700,13 +26700,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26721,7 +26721,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694781</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
         <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627827</v>
+        <v>933.702459562785</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,7 +26795,7 @@
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856956</v>
+        <v>640.1406900856983</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26828,10 +26828,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694781</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933044</v>
+        <v>319.6474457933067</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788911</v>
+        <v>434.2730407788888</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841895</v>
+        <v>376.4268100841922</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139528</v>
+        <v>532.56759801395</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015064</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841895</v>
+        <v>376.4268100841922</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139528</v>
+        <v>532.5675980139498</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841895</v>
+        <v>376.4268100841922</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139528</v>
+        <v>532.56759801395</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,16 +27387,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707557</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402053</v>
+        <v>143.1621657402054</v>
       </c>
       <c r="G2" t="n">
         <v>149.1202946442039</v>
       </c>
       <c r="H2" t="n">
-        <v>234.6821403231638</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -27435,7 +27435,7 @@
         <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>171.6366755721781</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>106.0172206769629</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27457,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>25.846291138385</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,25 +27508,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>146.2918796682657</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27548,19 +27548,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>72.00158543831462</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>167.8747855340912</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>22.54475050117141</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C5" t="n">
-        <v>101.5590117695014</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>90.96916161917682</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>340.1987280813171</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>50.47975262776185</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
         <v>115.3066195468971</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
         <v>212.2897156032232</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>157.1621355605639</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>57.21613438642676</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27748,22 +27748,22 @@
         <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>139.9922930392642</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>110.6386946919969</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27797,7 +27797,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27824,22 +27824,22 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
         <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>22.54475050117135</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>203.0907558666556</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>269.9422836382773</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4854171348404</v>
       </c>
       <c r="T8" t="n">
         <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896857</v>
+        <v>251.0453666896856</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>240.5224841619882</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27988,10 +27988,10 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.776449164520102</v>
       </c>
       <c r="V9" t="n">
-        <v>1.776449164530902</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28025,13 +28025,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3072536117062</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430995</v>
+        <v>104.8162497430994</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5869591640952</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>156.3920906228775</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7514885103387</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>178.7294535587149</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W17" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -30051,7 +30051,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30167,7 +30167,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>-7.490583863003388e-13</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30234,7 +30234,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -31047,16 +31047,16 @@
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350879</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388633</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
         <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167917</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
         <v>433.4580399459292</v>
@@ -31065,25 +31065,25 @@
         <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658378</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269072</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.577018565623</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R2" t="n">
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702306</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540028</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320797576787179</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H3" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990947</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
         <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919894</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
         <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043655</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N3" t="n">
-        <v>343.5174364293989</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
         <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480711</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736543</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163904</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944813</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0868945774202092</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,22 +31199,22 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912173</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582787</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244974</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779067</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
         <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440335</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M4" t="n">
         <v>173.576239384051</v>
@@ -31226,19 +31226,19 @@
         <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555595</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.7223070791912</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350554</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
         <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.73124354871565</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
         <v>0.06039885381339136</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885556</v>
+        <v>3.753577726885565</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546671</v>
+        <v>38.4413278954668</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157555</v>
+        <v>144.7098053157559</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972532</v>
+        <v>318.580217597254</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763189</v>
+        <v>477.46916277632</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354929</v>
+        <v>592.3427171354942</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359938</v>
+        <v>659.0954050359954</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525074</v>
+        <v>669.7602577525091</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307891</v>
+        <v>632.4356192307907</v>
       </c>
       <c r="P8" t="n">
-        <v>539.769169098302</v>
+        <v>539.7691690983032</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542128</v>
+        <v>405.3441667542138</v>
       </c>
       <c r="R8" t="n">
-        <v>235.785676886475</v>
+        <v>235.7856768864756</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140468</v>
+        <v>85.5346524514049</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944153</v>
+        <v>16.43128649944157</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508444</v>
+        <v>0.3002862181508451</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436929</v>
+        <v>2.008341139436934</v>
       </c>
       <c r="H9" t="n">
-        <v>19.3963473203514</v>
+        <v>19.39634732035144</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026269</v>
+        <v>69.14683309026286</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079425</v>
+        <v>189.744195107943</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502167</v>
+        <v>324.3030514502175</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571279</v>
+        <v>436.065474157129</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617165</v>
+        <v>508.8678404617177</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152213</v>
+        <v>522.3360580152225</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519082</v>
+        <v>477.8354464519094</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947588</v>
+        <v>383.5050724947598</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463701</v>
+        <v>256.3629847463707</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204788</v>
+        <v>124.6933209204791</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366398</v>
+        <v>37.30405581366407</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133935</v>
+        <v>8.095024154133954</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419033</v>
+        <v>0.1321277065419036</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752559</v>
+        <v>1.683725746752563</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840003</v>
+        <v>14.96985254840007</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415878</v>
+        <v>50.63422518415891</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954059</v>
+        <v>119.0394102954062</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772518</v>
+        <v>195.6183185772523</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490123</v>
+        <v>250.3240987490129</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023124</v>
+        <v>263.9316641023131</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462349</v>
+        <v>257.6559590462355</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046254</v>
+        <v>237.986981004626</v>
       </c>
       <c r="P10" t="n">
-        <v>203.638975770873</v>
+        <v>203.6389757708735</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939802</v>
+        <v>140.9890713939805</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307412</v>
+        <v>75.70643221307431</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658776</v>
+        <v>29.34274778658784</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942749</v>
+        <v>7.194100917942767</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650331</v>
+        <v>0.09183958618650354</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31852,16 +31852,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>359.7096985496635</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32089,19 +32089,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>332.1692388321076</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32320,22 +32320,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>282.8216163968503</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32548,34 +32548,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,10 +32803,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33022,13 +33022,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33274,16 +33274,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>230.1272937575231</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33505,22 +33505,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>282.8216163968503</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067228</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33745,19 +33745,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33970,10 +33970,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33985,10 +33985,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>616.9033572954396</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067255</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34216,19 +34216,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>514.8598010172136</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34456,16 +34456,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>437.853104691376</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217703</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664461</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
         <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186564</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
         <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441511</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
         <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117352</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>97.32166909127216</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763041</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
         <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823472</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460656</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>171.655098309828</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>118.2400000337409</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.9385470877692</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966406</v>
+        <v>106.3800667966403</v>
       </c>
       <c r="L4" t="n">
         <v>192.2171678043497</v>
@@ -34874,10 +34874,10 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.202951120453</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496811</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35017,10 +35017,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>172.7600739089029</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659562</v>
+        <v>153.4895779655505</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35029,7 +35029,7 @@
         <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>171.6550983098281</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="P6" t="n">
         <v>118.240000033741</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.534313070567</v>
+        <v>137.5343130705677</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313384</v>
+        <v>257.3793117313395</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655056</v>
+        <v>356.576302165507</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087211</v>
+        <v>428.7491718087227</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559165</v>
+        <v>440.3471941559182</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091024</v>
+        <v>402.337407809104</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430324</v>
+        <v>308.5361733430337</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797634</v>
+        <v>183.0384768797643</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234286</v>
+        <v>20.20013907234343</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>92.7685414470879</v>
+        <v>188.9976037816851</v>
       </c>
       <c r="K9" t="n">
-        <v>450.9268494884363</v>
+        <v>186.4616124758585</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772538</v>
+        <v>465.7472690552396</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396982</v>
+        <v>366.7338065396994</v>
       </c>
       <c r="N9" t="n">
-        <v>390.994345931888</v>
+        <v>390.9943459318893</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074638</v>
+        <v>335.2392020074649</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804286</v>
+        <v>249.5306650804295</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.4584983961977</v>
+        <v>326.4584983961983</v>
       </c>
       <c r="R9" t="n">
-        <v>24.53548676783571</v>
+        <v>24.53548676783601</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873313</v>
+        <v>25.68023017873341</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513689</v>
+        <v>173.3488267513694</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093284</v>
+        <v>277.914124009329</v>
       </c>
       <c r="M10" t="n">
-        <v>303.515541064153</v>
+        <v>303.5155410641536</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254635</v>
+        <v>301.7881314254641</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186651</v>
+        <v>262.5721089186657</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357665</v>
+        <v>200.917535035767</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228578</v>
+        <v>54.82702814228612</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35500,16 +35500,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>228.3679864663302</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35737,19 +35737,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>189.5729943876631</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,22 +35968,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>140.6875824748321</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,10 +36451,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36922,16 +36922,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>98.78558167418976</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,22 +37153,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>140.6875824748321</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236316905</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37393,19 +37393,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326294836</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37542,7 +37542,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396416</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37554,7 +37554,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
         <v>696.488651224316</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37633,10 +37633,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>485.5616452121063</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236319604</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37864,19 +37864,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>376.3054212373395</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367793</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38104,16 +38104,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>303.8786972770457</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_14_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_14_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2985908.034676454</v>
+        <v>2987668.564979238</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="E2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.7138800015061</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>263.7138800015061</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -712,13 +712,13 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>59.80127191868297</v>
       </c>
       <c r="U2" t="n">
-        <v>79.51149230610433</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -737,25 +737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>46.97722244911134</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,22 +785,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>105.4031034926539</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -828,19 +828,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>55.3395603454746</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>178.6431360149647</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="E5" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>219.4450108596166</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>212.5689651179051</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -974,19 +974,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>109.3170492634406</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1034,13 +1034,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>10.1845637256568</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1062,10 +1062,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>83.43224246993545</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>2.21468809059066</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54915978824948</v>
+        <v>11.54915978824949</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465002</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>129.2086165164808</v>
+        <v>194.9747007711214</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614502</v>
+        <v>92.83909691614507</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115222</v>
+        <v>18.47335059662269</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1265,10 +1265,10 @@
         <v>134.3791152901738</v>
       </c>
       <c r="T9" t="n">
-        <v>192.0697045406876</v>
+        <v>192.0697045406877</v>
       </c>
       <c r="U9" t="n">
-        <v>224.0328052099128</v>
+        <v>225.8092543744329</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1299,16 +1299,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5869591640953</v>
       </c>
       <c r="S10" t="n">
-        <v>38.28175962750693</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271897703044</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>250.1646381237007</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>34.22340015155905</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>199.5223428560317</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1660,10 +1660,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>142.8873577254024</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1903,10 +1903,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>41.33703994143001</v>
       </c>
       <c r="C19" t="n">
-        <v>28.75188085812011</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,13 +2295,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>245.8796921214428</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2329,10 +2329,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>20.72279572932659</v>
       </c>
       <c r="S25" t="n">
-        <v>113.5028334418564</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>49.33106662725117</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695709</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2961,13 +2961,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>157.2118128397233</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>108.5813113004299</v>
       </c>
     </row>
     <row r="32">
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3195,16 +3195,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3274,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417105</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>34.22340015155905</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3909,10 +3909,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560527</v>
       </c>
     </row>
     <row r="45">
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>123.7971820797026</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>192.5871593887788</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>820.230080101654</v>
+        <v>307.3840804899465</v>
       </c>
       <c r="C2" t="n">
-        <v>820.230080101654</v>
+        <v>307.3840804899465</v>
       </c>
       <c r="D2" t="n">
-        <v>820.230080101654</v>
+        <v>41.00642392276843</v>
       </c>
       <c r="E2" t="n">
-        <v>553.8524235344762</v>
+        <v>41.00642392276843</v>
       </c>
       <c r="F2" t="n">
-        <v>287.4747669672984</v>
+        <v>34.06092317356496</v>
       </c>
       <c r="G2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917582</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052541</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515904</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358417</v>
       </c>
       <c r="P2" t="n">
-        <v>1011.026904601762</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946887</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="T2" t="n">
-        <v>900.5447187946887</v>
+        <v>840.1393936243026</v>
       </c>
       <c r="U2" t="n">
-        <v>820.230080101654</v>
+        <v>840.1393936243026</v>
       </c>
       <c r="V2" t="n">
-        <v>820.230080101654</v>
+        <v>573.7617370571245</v>
       </c>
       <c r="W2" t="n">
-        <v>820.230080101654</v>
+        <v>573.7617370571245</v>
       </c>
       <c r="X2" t="n">
-        <v>820.230080101654</v>
+        <v>573.7617370571245</v>
       </c>
       <c r="Y2" t="n">
-        <v>820.230080101654</v>
+        <v>573.7617370571245</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.200219490875</v>
+        <v>227.7863052531632</v>
       </c>
       <c r="C3" t="n">
-        <v>613.200219490875</v>
+        <v>227.7863052531632</v>
       </c>
       <c r="D3" t="n">
-        <v>464.2658098296238</v>
+        <v>227.7863052531632</v>
       </c>
       <c r="E3" t="n">
-        <v>305.0283548241683</v>
+        <v>68.54885024770772</v>
       </c>
       <c r="F3" t="n">
-        <v>158.4937968510533</v>
+        <v>68.54885024770772</v>
       </c>
       <c r="G3" t="n">
-        <v>21.09711040012049</v>
+        <v>68.54885024770772</v>
       </c>
       <c r="H3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>117.4455628004799</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699341</v>
+        <v>121.6535314649673</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302307</v>
+        <v>268.397955125264</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267545</v>
+        <v>529.4746963267552</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293595</v>
+        <v>739.5286634293602</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560893</v>
+        <v>909.46721075609</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>1026.524810789494</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212814</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>887.8833378166541</v>
+        <v>887.8833378166548</v>
       </c>
       <c r="T3" t="n">
-        <v>887.8833378166541</v>
+        <v>691.0742594480924</v>
       </c>
       <c r="U3" t="n">
-        <v>887.8833378166541</v>
+        <v>462.9384134849059</v>
       </c>
       <c r="V3" t="n">
-        <v>887.8833378166541</v>
+        <v>227.7863052531632</v>
       </c>
       <c r="W3" t="n">
-        <v>781.4155565109431</v>
+        <v>227.7863052531632</v>
       </c>
       <c r="X3" t="n">
-        <v>781.4155565109431</v>
+        <v>227.7863052531632</v>
       </c>
       <c r="Y3" t="n">
-        <v>781.4155565109431</v>
+        <v>227.7863052531632</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169.0102039825136</v>
+        <v>653.6153287261669</v>
       </c>
       <c r="C4" t="n">
-        <v>169.0102039825136</v>
+        <v>653.6153287261669</v>
       </c>
       <c r="D4" t="n">
-        <v>169.0102039825136</v>
+        <v>653.6153287261669</v>
       </c>
       <c r="E4" t="n">
-        <v>21.09711040012049</v>
+        <v>505.7022351437738</v>
       </c>
       <c r="F4" t="n">
-        <v>21.09711040012049</v>
+        <v>358.8122876458634</v>
       </c>
       <c r="G4" t="n">
-        <v>21.09711040012049</v>
+        <v>190.2429270008668</v>
       </c>
       <c r="H4" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="I4" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287943</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551006</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375332</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227043</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075539</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P4" t="n">
-        <v>1048.360858816802</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407072</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>719.2759572512186</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>663.3774114477089</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U4" t="n">
-        <v>396.999754880531</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V4" t="n">
-        <v>396.999754880531</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W4" t="n">
-        <v>396.999754880531</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X4" t="n">
-        <v>169.0102039825136</v>
+        <v>874.4079078696971</v>
       </c>
       <c r="Y4" t="n">
-        <v>169.0102039825136</v>
+        <v>653.6153287261669</v>
       </c>
     </row>
     <row r="5">
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>573.7617370571243</v>
+        <v>788.477863438847</v>
       </c>
       <c r="C5" t="n">
-        <v>573.7617370571243</v>
+        <v>788.477863438847</v>
       </c>
       <c r="D5" t="n">
-        <v>307.3840804899464</v>
+        <v>522.1002068716689</v>
       </c>
       <c r="E5" t="n">
-        <v>41.00642392276842</v>
+        <v>255.7225503044908</v>
       </c>
       <c r="F5" t="n">
-        <v>34.06092317356495</v>
+        <v>34.06092317356496</v>
       </c>
       <c r="G5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917587</v>
       </c>
       <c r="K5" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515905</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030607</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991321</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358417</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4609,10 +4609,10 @@
         <v>1054.855520006025</v>
       </c>
       <c r="X5" t="n">
-        <v>840.1393936243022</v>
+        <v>788.477863438847</v>
       </c>
       <c r="Y5" t="n">
-        <v>840.1393936243022</v>
+        <v>788.477863438847</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.09711040012049</v>
+        <v>650.2565623210693</v>
       </c>
       <c r="C6" t="n">
-        <v>21.09711040012049</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="D6" t="n">
-        <v>21.09711040012049</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E6" t="n">
-        <v>21.09711040012049</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957465</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L6" t="n">
-        <v>247.7358133554696</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M6" t="n">
-        <v>438.3365024519934</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N6" t="n">
-        <v>648.3904695545984</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560896</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P6" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891336</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
@@ -4682,16 +4682,16 @@
         <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>801.367527981072</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="W6" t="n">
-        <v>547.1301712528705</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="X6" t="n">
-        <v>339.2786710473376</v>
+        <v>1026.232198106091</v>
       </c>
       <c r="Y6" t="n">
-        <v>131.5183722823837</v>
+        <v>818.4718993411373</v>
       </c>
     </row>
     <row r="7">
@@ -4701,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>340.1499327403632</v>
+        <v>650.177417354891</v>
       </c>
       <c r="C7" t="n">
-        <v>171.2137498124562</v>
+        <v>481.2412344269841</v>
       </c>
       <c r="D7" t="n">
-        <v>21.09711040012049</v>
+        <v>331.1245950146483</v>
       </c>
       <c r="E7" t="n">
-        <v>21.09711040012049</v>
+        <v>183.2115014322552</v>
       </c>
       <c r="F7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="G7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="H7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="I7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K7" t="n">
         <v>126.4133765287949</v>
       </c>
       <c r="L7" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551011</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375338</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227048</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075545</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4764,13 +4764,13 @@
         <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>970.5805276121504</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X7" t="n">
-        <v>742.590976714133</v>
+        <v>1052.618461328661</v>
       </c>
       <c r="Y7" t="n">
-        <v>521.7983975706029</v>
+        <v>831.8258821851307</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1653.309834245809</v>
+        <v>1586.879446109798</v>
       </c>
       <c r="C8" t="n">
-        <v>1284.347317305397</v>
+        <v>1217.916929169387</v>
       </c>
       <c r="D8" t="n">
-        <v>926.0816186986465</v>
+        <v>859.6512305626363</v>
       </c>
       <c r="E8" t="n">
-        <v>540.2933661004023</v>
+        <v>473.862977964392</v>
       </c>
       <c r="F8" t="n">
-        <v>129.3074613107948</v>
+        <v>62.87707317478446</v>
       </c>
       <c r="G8" t="n">
-        <v>117.641643342866</v>
+        <v>51.21125520685568</v>
       </c>
       <c r="H8" t="n">
-        <v>117.641643342866</v>
+        <v>51.21125520685568</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685587</v>
+        <v>51.21125520685568</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467179</v>
+        <v>187.3702251467175</v>
       </c>
       <c r="K8" t="n">
-        <v>442.175743760744</v>
+        <v>442.1757437607425</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045963</v>
+        <v>795.1862829045936</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995231</v>
+        <v>1219.647962995227</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.59168520959</v>
+        <v>1655.591685209585</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940603</v>
+        <v>2053.905718940597</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550207</v>
+        <v>2359.356530550198</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661173</v>
+        <v>2540.564622661164</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342793</v>
+        <v>2560.562760342784</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342793</v>
+        <v>2560.562760342784</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.562760342793</v>
+        <v>2560.562760342784</v>
       </c>
       <c r="U8" t="n">
-        <v>2560.562760342793</v>
+        <v>2560.562760342784</v>
       </c>
       <c r="V8" t="n">
-        <v>2560.562760342793</v>
+        <v>2560.562760342784</v>
       </c>
       <c r="W8" t="n">
-        <v>2560.562760342793</v>
+        <v>2560.562760342784</v>
       </c>
       <c r="X8" t="n">
-        <v>2430.049006285742</v>
+        <v>2363.618618149732</v>
       </c>
       <c r="Y8" t="n">
-        <v>2039.90967430993</v>
+        <v>1973.47928617392</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041138965631</v>
+        <v>929.5097208010786</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8510846154361</v>
+        <v>755.0566915199516</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9166749541848</v>
+        <v>606.1222818587004</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792199487294</v>
+        <v>446.8848268532449</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446619756144</v>
+        <v>300.3502688801299</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4424639718026</v>
+        <v>163.6480708763181</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993892</v>
+        <v>69.87120530445435</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685587</v>
+        <v>51.21125520685568</v>
       </c>
       <c r="J9" t="n">
-        <v>238.3188829507241</v>
+        <v>113.4887579637188</v>
       </c>
       <c r="K9" t="n">
-        <v>422.9158793018241</v>
+        <v>559.9063389572708</v>
       </c>
       <c r="L9" t="n">
-        <v>884.0056756665113</v>
+        <v>854.4423223907521</v>
       </c>
       <c r="M9" t="n">
-        <v>1247.072144140814</v>
+        <v>1217.508790865053</v>
       </c>
       <c r="N9" t="n">
-        <v>1634.156546613384</v>
+        <v>1604.593193337623</v>
       </c>
       <c r="O9" t="n">
-        <v>1966.043356600774</v>
+        <v>1936.480003325012</v>
       </c>
       <c r="P9" t="n">
-        <v>2213.0787150304</v>
+        <v>2445.345361789039</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.272628442636</v>
+        <v>2560.562760342784</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342793</v>
+        <v>2560.562760342784</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251709</v>
+        <v>2424.826280251699</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685358</v>
+        <v>2230.816477685348</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520714847062</v>
+        <v>2002.726321751578</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368606615319</v>
+        <v>1767.574213519835</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131249887118</v>
+        <v>1513.336856791633</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279749681585</v>
+        <v>1305.485356586101</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519450916631</v>
+        <v>1097.725057821147</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>388.1345629950721</v>
+        <v>831.6823717107688</v>
       </c>
       <c r="C10" t="n">
-        <v>219.1983800671651</v>
+        <v>662.746188782862</v>
       </c>
       <c r="D10" t="n">
-        <v>219.1983800671651</v>
+        <v>662.746188782862</v>
       </c>
       <c r="E10" t="n">
-        <v>219.1983800671651</v>
+        <v>514.8330952004688</v>
       </c>
       <c r="F10" t="n">
-        <v>219.1983800671651</v>
+        <v>367.9431477025585</v>
       </c>
       <c r="G10" t="n">
-        <v>51.21125520685587</v>
+        <v>199.9560228422492</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685587</v>
+        <v>51.21125520685568</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685587</v>
+        <v>51.21125520685568</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380195</v>
+        <v>76.63468308380149</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676577</v>
+        <v>248.2500215676568</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368934</v>
+        <v>523.3850043368921</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904054</v>
+        <v>823.8653899904036</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101615</v>
+        <v>1122.635640101613</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931094</v>
+        <v>1382.582027931091</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616504</v>
+        <v>1581.4903876165</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477367</v>
+        <v>1635.769145477363</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477367</v>
+        <v>1533.15605541262</v>
       </c>
       <c r="S10" t="n">
-        <v>1597.100701409178</v>
+        <v>1533.15605541262</v>
       </c>
       <c r="T10" t="n">
-        <v>1597.100701409178</v>
+        <v>1533.15605541262</v>
       </c>
       <c r="U10" t="n">
-        <v>1307.98232790382</v>
+        <v>1533.15605541262</v>
       </c>
       <c r="V10" t="n">
-        <v>1307.98232790382</v>
+        <v>1533.15605541262</v>
       </c>
       <c r="W10" t="n">
-        <v>1018.565157866859</v>
+        <v>1280.464501752316</v>
       </c>
       <c r="X10" t="n">
-        <v>790.575606968842</v>
+        <v>1052.474950854299</v>
       </c>
       <c r="Y10" t="n">
-        <v>569.7830278253118</v>
+        <v>831.6823717107688</v>
       </c>
     </row>
     <row r="11">
@@ -5035,13 +5035,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075811</v>
@@ -5050,22 +5050,22 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>762.5477693179085</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="C13" t="n">
-        <v>593.6115863900017</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D13" t="n">
-        <v>443.4949469776659</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E13" t="n">
-        <v>295.5818533952728</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2245.425363523663</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1956.350136867861</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1701.665648661974</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1412.248478625013</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>1184.258927726996</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>963.466348583466</v>
       </c>
     </row>
     <row r="14">
@@ -5269,52 +5269,52 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>379.8591585748671</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>379.8591585748671</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5463,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="17">
@@ -5509,46 +5509,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,22 +5588,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
         <v>2001.151557821488</v>
@@ -5649,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
         <v>484.8112968429802</v>
@@ -5667,58 +5667,58 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5943,19 +5943,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5977,7 +5977,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5989,10 +5989,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>801.6605733532803</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C25" t="n">
-        <v>632.7243904253734</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D25" t="n">
-        <v>632.7243904253734</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.030966681951</v>
       </c>
       <c r="S25" t="n">
-        <v>2265.268053123717</v>
+        <v>2243.176132336855</v>
       </c>
       <c r="T25" t="n">
-        <v>2265.268053123717</v>
+        <v>2023.574667359796</v>
       </c>
       <c r="U25" t="n">
-        <v>1976.192826467915</v>
+        <v>1734.499440703994</v>
       </c>
       <c r="V25" t="n">
-        <v>1721.508338262028</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="W25" t="n">
-        <v>1432.091168225067</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X25" t="n">
-        <v>1204.10161732705</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y25" t="n">
-        <v>983.30903818352</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="26">
@@ -6223,13 +6223,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6487,7 +6487,7 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S29" t="n">
         <v>4606.285157492578</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,16 +6536,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>869.6905094135296</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C31" t="n">
-        <v>700.7543264856228</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D31" t="n">
-        <v>550.637687073287</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6648,25 +6648,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>2264.108249235165</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U31" t="n">
-        <v>1975.033022579363</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V31" t="n">
-        <v>1720.348534373476</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W31" t="n">
-        <v>1430.931364336515</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X31" t="n">
-        <v>1272.131553387299</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y31" t="n">
-        <v>1051.338974243769</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="32">
@@ -6682,40 +6682,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6739,10 +6739,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6919,7 +6919,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6931,55 +6931,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192559</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111711</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7128,19 +7128,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7426,13 +7426,13 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7453,7 +7453,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2390.881471216014</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2171.280006238955</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583153</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7627,7 +7627,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7636,16 +7636,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168616</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7654,7 +7654,7 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014779</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7675,22 +7675,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7721,10 +7721,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803937</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>2185.384895601573</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>903.4258806613761</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,16 +8057,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.37288961069042</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>26.13373767211372</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>71.18793141915893</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8139,7 +8139,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446522</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8157,7 +8157,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775146</v>
+        <v>65.34295837775173</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>5.262887399594234</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8309,13 +8309,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>92.05878169167806</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>97.32166909127268</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>168.2361746779848</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>264.4747475094971</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.98618304348508</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>111.1976478713722</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>17.88310747125658</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>22.63678056686646</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="C19" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,13 +24183,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>6.257951202385186</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>45.65245098079509</v>
       </c>
       <c r="S25" t="n">
-        <v>67.5234525597882</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>176.378588761786</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24849,13 +24849,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24888,10 +24888,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>68.49784254931382</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>110.0033420516649</v>
       </c>
     </row>
     <row r="32">
@@ -25083,16 +25083,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>145.6085800303782</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25797,10 +25797,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25836,7 +25836,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26073,10 +26073,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>57.229103921942</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>24.81829093850945</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>734971.1552311779</v>
+        <v>734971.155231178</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>734971.155231178</v>
+        <v>734971.1552311779</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>734971.155231178</v>
+        <v>734971.1552311782</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>734971.1552311779</v>
+        <v>734971.155231178</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>734971.1552311779</v>
+        <v>734971.155231178</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>734971.1552311779</v>
+        <v>734971.155231178</v>
       </c>
     </row>
   </sheetData>
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846411</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.504384641</v>
       </c>
       <c r="D2" t="n">
         <v>697885.5043846405</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="F2" t="n">
-        <v>686074.6097365053</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="G2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="H2" t="n">
-        <v>686074.6097365053</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="I2" t="n">
-        <v>686074.6097365053</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="J2" t="n">
         <v>686074.6097365055</v>
@@ -26346,16 +26346,16 @@
         <v>686074.6097365057</v>
       </c>
       <c r="M2" t="n">
-        <v>686074.6097365053</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="N2" t="n">
         <v>686074.6097365054</v>
       </c>
       <c r="O2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365055</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.980591193</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580816</v>
+        <v>390680.0076580789</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606908</v>
+        <v>507909.2320606934</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911406</v>
+        <v>68999.1544191141</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.170374162029475e-10</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101828</v>
+        <v>95270.23779101757</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954683</v>
+        <v>132717.9756954691</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>248543.2666865468</v>
+        <v>248543.2666865467</v>
       </c>
       <c r="C4" t="n">
-        <v>248543.2666865468</v>
+        <v>248543.2666865467</v>
       </c>
       <c r="D4" t="n">
-        <v>136854.4547662831</v>
+        <v>136854.4547662837</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="F4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.200356756644</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="H4" t="n">
         <v>9337.20035675659</v>
@@ -26444,22 +26444,22 @@
         <v>9337.20035675659</v>
       </c>
       <c r="K4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756653</v>
       </c>
       <c r="L4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="M4" t="n">
-        <v>9337.200356756653</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="N4" t="n">
-        <v>9337.200356756632</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="O4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="P4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756632</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.80320426621</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.80320426621</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567916</v>
+        <v>92902.86757567897</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-293793.5460973649</v>
+        <v>-293793.5460973654</v>
       </c>
       <c r="C6" t="n">
-        <v>386294.4344938277</v>
+        <v>386294.434493828</v>
       </c>
       <c r="D6" t="n">
-        <v>77448.17438459666</v>
+        <v>77448.17438459885</v>
       </c>
       <c r="E6" t="n">
-        <v>67358.26824079438</v>
+        <v>67670.90956971269</v>
       </c>
       <c r="F6" t="n">
-        <v>575267.5003014847</v>
+        <v>575580.1416304065</v>
       </c>
       <c r="G6" t="n">
-        <v>575267.5003014849</v>
+        <v>575580.141630406</v>
       </c>
       <c r="H6" t="n">
-        <v>575267.5003014847</v>
+        <v>575580.1416304063</v>
       </c>
       <c r="I6" t="n">
-        <v>575267.5003014847</v>
+        <v>575580.1416304061</v>
       </c>
       <c r="J6" t="n">
-        <v>506268.3458823709</v>
+        <v>506580.987211292</v>
       </c>
       <c r="K6" t="n">
-        <v>575267.5003014851</v>
+        <v>575580.141630406</v>
       </c>
       <c r="L6" t="n">
-        <v>479997.2625104667</v>
+        <v>480309.9038393886</v>
       </c>
       <c r="M6" t="n">
-        <v>442549.5246060162</v>
+        <v>442862.1659349371</v>
       </c>
       <c r="N6" t="n">
-        <v>575267.5003014847</v>
+        <v>575580.1416304061</v>
       </c>
       <c r="O6" t="n">
-        <v>575267.5003014851</v>
+        <v>575580.1416304061</v>
       </c>
       <c r="P6" t="n">
-        <v>575267.5003014851</v>
+        <v>575580.1416304061</v>
       </c>
     </row>
   </sheetData>
@@ -26721,13 +26721,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>933.702459562785</v>
+        <v>933.7024595627829</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856983</v>
+        <v>640.140690085696</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26816,7 +26816,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933067</v>
+        <v>319.6474457933045</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788888</v>
+        <v>434.2730407788911</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841922</v>
+        <v>376.4268100841898</v>
       </c>
       <c r="E4" t="n">
-        <v>532.56759801395</v>
+        <v>532.5675980139526</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841922</v>
+        <v>376.4268100841894</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139498</v>
+        <v>532.5675980139526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841922</v>
+        <v>376.4268100841898</v>
       </c>
       <c r="M4" t="n">
-        <v>532.56759801395</v>
+        <v>532.5675980139526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>119.0199616619743</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>90.9691616191767</v>
       </c>
       <c r="E2" t="n">
-        <v>118.2164900707557</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402054</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>149.1202946442039</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
@@ -27432,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>152.4884436845403</v>
       </c>
       <c r="U2" t="n">
-        <v>171.6366755721781</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862865</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27457,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>52.5020978220984</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27511,16 +27511,16 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>146.2918796682657</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27548,19 +27548,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>167.8747855340912</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117141</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>47.06651937407247</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119.0199616619744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>90.96916161917682</v>
+        <v>90.9691616191767</v>
       </c>
       <c r="E5" t="n">
-        <v>118.2164900707556</v>
+        <v>118.2164900707555</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>187.4310348820948</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>157.1621355605639</v>
+        <v>106.0172206769628</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>57.21613438642676</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27754,13 +27754,13 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>195.5884214778207</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27782,10 +27782,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27797,7 +27797,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27836,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>203.0907558666556</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>223.4949672984465</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.76608425465034</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348404</v>
+        <v>123.4854171348406</v>
       </c>
       <c r="T8" t="n">
         <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896856</v>
+        <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>240.5224841619882</v>
+        <v>174.7563999073477</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27952,7 +27952,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.776449164529687</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27988,7 +27988,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>1.776449164520102</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28019,19 +28019,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590395</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430994</v>
+        <v>104.8162497430995</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640952</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>156.3920906228775</v>
+        <v>194.6738502503845</v>
       </c>
       <c r="T10" t="n">
         <v>220.7514885103387</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>36.35836021289032</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28623,7 +28623,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -30051,7 +30051,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30234,7 +30234,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30765,7 +30765,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>9.28537247091299e-13</v>
       </c>
     </row>
     <row r="45">
@@ -31041,31 +31041,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31077,7 +31077,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31126,16 +31126,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31144,25 +31144,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,16 +31202,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31223,25 +31223,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,31 +31278,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31314,7 +31314,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31363,16 +31363,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31381,25 +31381,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,16 +31439,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31460,25 +31460,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885565</v>
+        <v>3.753577726885557</v>
       </c>
       <c r="H8" t="n">
-        <v>38.4413278954668</v>
+        <v>38.44132789546671</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157559</v>
+        <v>144.7098053157556</v>
       </c>
       <c r="J8" t="n">
-        <v>318.580217597254</v>
+        <v>318.5802175972533</v>
       </c>
       <c r="K8" t="n">
-        <v>477.46916277632</v>
+        <v>477.469162776319</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354942</v>
+        <v>592.342717135493</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359954</v>
+        <v>659.095405035994</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525091</v>
+        <v>669.7602577525076</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307907</v>
+        <v>632.4356192307894</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983032</v>
+        <v>539.7691690983021</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542138</v>
+        <v>405.3441667542129</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864756</v>
+        <v>235.785676886475</v>
       </c>
       <c r="S8" t="n">
-        <v>85.5346524514049</v>
+        <v>85.53465245140471</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944157</v>
+        <v>16.43128649944153</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508451</v>
+        <v>0.3002862181508444</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436934</v>
+        <v>2.008341139436929</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035144</v>
+        <v>19.3963473203514</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026286</v>
+        <v>69.1468330902627</v>
       </c>
       <c r="J9" t="n">
-        <v>189.744195107943</v>
+        <v>189.7441951079425</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502175</v>
+        <v>324.3030514502168</v>
       </c>
       <c r="L9" t="n">
-        <v>436.065474157129</v>
+        <v>436.0654741571281</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617177</v>
+        <v>508.8678404617166</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152225</v>
+        <v>522.3360580152214</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519094</v>
+        <v>477.8354464519084</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947598</v>
+        <v>383.5050724947589</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463707</v>
+        <v>256.3629847463702</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204791</v>
+        <v>124.6933209204789</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366407</v>
+        <v>37.30405581366399</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133954</v>
+        <v>8.095024154133936</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419036</v>
+        <v>0.1321277065419033</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752563</v>
+        <v>1.683725746752559</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840007</v>
+        <v>14.96985254840004</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415891</v>
+        <v>50.63422518415879</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954062</v>
+        <v>119.0394102954059</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772523</v>
+        <v>195.6183185772518</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490129</v>
+        <v>250.3240987490123</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023131</v>
+        <v>263.9316641023125</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462355</v>
+        <v>257.655959046235</v>
       </c>
       <c r="O10" t="n">
-        <v>237.986981004626</v>
+        <v>237.9869810046254</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708735</v>
+        <v>203.6389757708731</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939805</v>
+        <v>140.9890713939802</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307431</v>
+        <v>75.70643221307414</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658784</v>
+        <v>29.34274778658777</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942767</v>
+        <v>7.194100917942751</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650354</v>
+        <v>0.09183958618650333</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>463.9598929192557</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>370.9642309107744</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32083,7 +32083,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593843</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593843</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.32166909127216</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763047</v>
+        <v>101.5721424897442</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823473</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="N3" t="n">
         <v>212.1757243460657</v>
@@ -34798,7 +34798,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966403</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L4" t="n">
         <v>192.2171678043497</v>
@@ -34877,7 +34877,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.560263827497113</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,10 +35017,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763047</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L6" t="n">
-        <v>153.4895779655505</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35029,13 +35029,13 @@
         <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>263.7138800015061</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649638</v>
+        <v>125.9385470877691</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35114,7 +35114,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705677</v>
+        <v>137.534313070567</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313395</v>
+        <v>257.3793117313385</v>
       </c>
       <c r="L8" t="n">
-        <v>356.576302165507</v>
+        <v>356.5763021655058</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087227</v>
+        <v>428.7491718087213</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559182</v>
+        <v>440.3471941559167</v>
       </c>
       <c r="O8" t="n">
-        <v>402.337407809104</v>
+        <v>402.3374078091026</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430337</v>
+        <v>308.5361733430325</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797643</v>
+        <v>183.0384768797635</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234343</v>
+        <v>20.20013907234292</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>188.9976037816851</v>
+        <v>62.90656844127585</v>
       </c>
       <c r="K9" t="n">
-        <v>186.4616124758585</v>
+        <v>450.9268494884364</v>
       </c>
       <c r="L9" t="n">
-        <v>465.7472690552396</v>
+        <v>297.5110943772539</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396994</v>
+        <v>366.7338065396983</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318893</v>
+        <v>390.9943459318881</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074649</v>
+        <v>335.2392020074639</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804295</v>
+        <v>514.0054125899258</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.4584983961983</v>
+        <v>116.3812106603486</v>
       </c>
       <c r="R9" t="n">
-        <v>24.53548676783601</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873341</v>
+        <v>25.68023017873315</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513694</v>
+        <v>173.348826751369</v>
       </c>
       <c r="L10" t="n">
-        <v>277.914124009329</v>
+        <v>277.9141240093285</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641536</v>
+        <v>303.5155410641531</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254641</v>
+        <v>301.7881314254636</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186657</v>
+        <v>262.5721089186651</v>
       </c>
       <c r="P10" t="n">
-        <v>200.917535035767</v>
+        <v>200.9175350357665</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228612</v>
+        <v>54.82702814228584</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,22 +35494,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>332.6181808359224</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35731,7 +35731,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795101</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35740,7 +35740,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795101</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36594,7 +36594,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902427</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37542,7 +37542,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396416</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
